--- a/data/processed/missing_values/df_missing_values_year.xlsx
+++ b/data/processed/missing_values/df_missing_values_year.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,25 +468,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>147</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>154</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9545454545454546</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>260</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>260</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>260</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>260</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>153</v>
-      </c>
-      <c r="C2" t="n">
-        <v>212</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>216</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Nuevo Horizonte</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>365</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4191780821917808</v>
+      <c r="E5" t="n">
+        <v>240</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/missing_values/df_missing_values_year.xlsx
+++ b/data/processed/missing_values/df_missing_values_year.xlsx
@@ -472,21 +472,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9545454545454546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -496,21 +496,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>260</v>
+        <v>766</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.3276762402088773</v>
       </c>
     </row>
     <row r="4">
@@ -520,21 +520,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>260</v>
+        <v>743</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.5787348586810229</v>
       </c>
     </row>
     <row r="5">
@@ -544,21 +544,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="C5" t="n">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.6745406824146981</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/missing_values/df_missing_values_year.xlsx
+++ b/data/processed/missing_values/df_missing_values_year.xlsx
@@ -472,21 +472,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="C2" t="n">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="3">
@@ -496,21 +496,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C3" t="n">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>766</v>
+        <v>260</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3276762402088773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -520,21 +520,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="C4" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>743</v>
+        <v>260</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5787348586810229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -544,21 +544,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6745406824146981</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
